--- a/field_lab_data/AG_biomass.xlsx
+++ b/field_lab_data/AG_biomass.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351FA2F-EAF5-4FFD-BE10-D1121714A985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8997AFC7-F51A-49A3-80E1-33C56AB043AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +671,9 @@
       <c r="D2" s="2">
         <v>3.0163000000000002</v>
       </c>
+      <c r="E2" s="2">
+        <v>8.6199999999999992</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -693,6 +696,9 @@
       <c r="D4" s="2">
         <v>2.9847000000000001</v>
       </c>
+      <c r="E4" s="2">
+        <v>7.62</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -718,6 +724,9 @@
       <c r="D6" s="2">
         <v>7.2613000000000003</v>
       </c>
+      <c r="E6" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -732,6 +741,9 @@
       <c r="D7" s="2">
         <v>5.7462</v>
       </c>
+      <c r="E7" s="2">
+        <v>20.45</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -746,6 +758,9 @@
       <c r="D8" s="2">
         <v>2.0838999999999999</v>
       </c>
+      <c r="E8" s="2">
+        <v>29.75</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -760,6 +775,9 @@
       <c r="D9" s="2">
         <v>2.0419999999999998</v>
       </c>
+      <c r="E9" s="2">
+        <v>24.34</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -785,6 +803,9 @@
       <c r="D11" s="2">
         <v>1.6906000000000001</v>
       </c>
+      <c r="E11" s="2">
+        <v>17.02</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -810,6 +831,9 @@
       <c r="D13" s="2">
         <v>2.2631000000000001</v>
       </c>
+      <c r="E13" s="2">
+        <v>12.23</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -824,6 +848,9 @@
       <c r="D14" s="2">
         <v>0.55049999999999999</v>
       </c>
+      <c r="E14" s="2">
+        <v>6.51</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -838,6 +865,9 @@
       <c r="D15" s="2">
         <v>0.89580000000000004</v>
       </c>
+      <c r="E15" s="2">
+        <v>9.91</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -850,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -863,8 +893,11 @@
       <c r="D17" s="2">
         <v>0.90800000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -877,8 +910,11 @@
       <c r="D18" s="2">
         <v>0.90210000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -889,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -902,8 +938,11 @@
       <c r="D20" s="2">
         <v>1.7462</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>16.920000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -916,8 +955,11 @@
       <c r="D21" s="2">
         <v>7.1936999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>33.130000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -928,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -941,8 +983,11 @@
       <c r="D23" s="2">
         <v>0.45190000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -953,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -966,8 +1011,11 @@
       <c r="D25" s="2">
         <v>1.3974</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -980,8 +1028,11 @@
       <c r="D26" s="2">
         <v>0.93440000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -994,8 +1045,11 @@
       <c r="D27" s="2">
         <v>7.96</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1006,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1019,8 +1073,11 @@
       <c r="D29" s="2">
         <v>1.194</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1031,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1044,8 +1101,11 @@
       <c r="D31" s="2">
         <v>3.4611000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1058,8 +1118,11 @@
       <c r="D32" s="2">
         <v>0.28399999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1070,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1083,8 +1146,11 @@
       <c r="D34" s="2">
         <v>1.0880000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1095,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1108,8 +1174,11 @@
       <c r="D36" s="2">
         <v>2.6753999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1122,8 +1191,11 @@
       <c r="D37" s="2">
         <v>3.3681999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1136,8 +1208,11 @@
       <c r="D38" s="2">
         <v>0.2039</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1150,8 +1225,11 @@
       <c r="D39" s="2">
         <v>0.90149999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1162,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1173,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1186,8 +1264,11 @@
       <c r="D42" s="2">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1200,8 +1281,11 @@
       <c r="D43" s="2">
         <v>1.6896</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1212,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1225,8 +1309,11 @@
       <c r="D45" s="2">
         <v>1.1866000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1239,8 +1326,11 @@
       <c r="D46" s="2">
         <v>0.83450000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1251,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1264,8 +1354,11 @@
       <c r="D48" s="2">
         <v>3.2467000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>19.739999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1278,8 +1371,11 @@
       <c r="D49" s="2">
         <v>3.4561000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -1292,8 +1388,11 @@
       <c r="D50" s="2">
         <v>0.23569999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -1304,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1317,8 +1416,11 @@
       <c r="D52" s="2">
         <v>0.80740000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1331,8 +1433,11 @@
       <c r="D53" s="2">
         <v>2.0099</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1343,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1356,8 +1461,11 @@
       <c r="D55" s="2">
         <v>1.1104000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="2">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1370,8 +1478,11 @@
       <c r="D56" s="2">
         <v>0.83260000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="2">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1382,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1395,8 +1506,11 @@
       <c r="D58" s="2">
         <v>5.6173999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="2">
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -1407,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -1420,8 +1534,11 @@
       <c r="D60" s="2">
         <v>0.34649999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="2">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -1434,8 +1551,11 @@
       <c r="D61" s="2">
         <v>0.19989999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="2">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1448,8 +1568,11 @@
       <c r="D62" s="2">
         <v>0.78220000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -1462,8 +1585,11 @@
       <c r="D63" s="2">
         <v>0.3301</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="2">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1474,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -1487,8 +1613,11 @@
       <c r="D65" s="2">
         <v>1.2363999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="2">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -1499,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
@@ -1512,8 +1641,11 @@
       <c r="D67" s="2">
         <v>0.33279999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="2">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
@@ -1526,8 +1658,11 @@
       <c r="D68" s="2">
         <v>1.4211</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="2">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -1538,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
@@ -1551,8 +1686,11 @@
       <c r="D70" s="2">
         <v>1.0062</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -1565,8 +1703,11 @@
       <c r="D71" s="2">
         <v>2.6315</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="2">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -1579,8 +1720,11 @@
       <c r="D72" s="2">
         <v>1.796</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="2">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
